--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st01.xlsx
@@ -1264,7 +1264,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Yes. I heard them calling it "The Big, Ugly Thing".  So gross...
+    <t xml:space="preserve">[name="Tomimi"]  Yes. I heard them calling it 'The Big, Ugly Thing'.  So gross...
 </t>
   </si>
   <si>
@@ -1364,7 +1364,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  But with a tool? That’s different. My tribe created this "Big, Ugly Thing" that effortlessly took down Gavial and destroyed the Temple just as easily.
+    <t xml:space="preserve">[name="Eunectes"]  But with a tool? That’s different. My tribe created this 'Big, Ugly Thing' that effortlessly took down Gavial and destroyed the Temple just as easily.
 </t>
   </si>
   <si>
@@ -1560,7 +1560,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Because of the \"Stone Disease\"?;......;I guess sightseeing can wait.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Because of the 'Stone Disease'?;......;I guess sightseeing can wait.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1580,7 +1580,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  But there is one good thing about this place. You heard it, right? They call Oripathy  "Stone Disease" and treat it like an ordinary malady. 
+    <t xml:space="preserve">[name="Gavial"]  But there is one good thing about this place. You heard it, right? They call Oripathy  'Stone Disease' and treat it like an ordinary malady. 
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Day after day, time after time, it was "Oh no, Gavial, let me do that for you," you know what I mean...? That’s no life for me.
+    <t xml:space="preserve">[name="Gavial"]  Day after day, time after time, it was 'Oh no, Gavial, let me do that for you,' you know what I mean...? That’s no life for me.
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st01.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_st01.xlsx
@@ -1252,23 +1252,23 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial, you’re awake! Are you okay?!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m fine. Just a scratch.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  More importantly, is that the machine Zumama’s been tinkering with all this time?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Yes. I heard them calling it 'The Big, Ugly Thing'.  So gross...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s pretty badass!
+    <t xml:space="preserve">[name="Tomimi"]  Gavial, you're awake! Are you okay?!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'm fine. Just a scratch.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  More importantly, is that the machine Zumama's been tinkering with all this time?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Yes. I heard them calling it 'The Big, Ugly Thing.'  So gross...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  It's pretty badass!
 </t>
   </si>
   <si>
@@ -1280,7 +1280,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I can tell it’s really tough, even through it knocked my lights out before I got a good look at it.
+    <t xml:space="preserve">[name="Gavial"]  I can tell it's really tough, even through it knocked my lights out before I got a good look at it.
 </t>
   </si>
   <si>
@@ -1288,11 +1288,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  But I never imagined she’d actually put together something like this.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Closure makes some weird gadgets every once in a while, yeah, but even she’d be impressed with Zumama’s machine here. Haha.
+    <t xml:space="preserve">[name="Gavial"]  But I never imagined she'd actually put together something like this.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Closure makes some weird gadgets every once in a while, yeah, but even she'd be impressed with Zumama's machine here. Haha.
 </t>
   </si>
   <si>
@@ -1324,7 +1324,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, so that means the ceremony’s over?
+    <t xml:space="preserve">[name="Gavial"]  Oh, so that means the ceremony's over?
 </t>
   </si>
   <si>
@@ -1332,7 +1332,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  And so Zumama’s the Great Chief now?
+    <t xml:space="preserve">[name="Gavial"]  And so Zumama's the Great Chief now?
 </t>
   </si>
   <si>
@@ -1344,27 +1344,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Eunectes"]  Why did I destroy the Temple? It’s simple.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  It’s my way of telling you all we’re ending this tradition.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  With your fists, you can beat down ten men. If you’re Gavial, maybe you take a hundred. But more than that?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  Even Gavial couldn’t manage.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  There’s a limit to what you can do with your fists.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Eunectes"]  But with a tool? That’s different. My tribe created this 'Big, Ugly Thing' that effortlessly took down Gavial and destroyed the Temple just as easily.
+    <t xml:space="preserve">[name="Eunectes"]  Why did I destroy the Temple? It's simple.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  It's my way of telling you all we're ending this tradition.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  With your fists, you can beat down ten men. If you're Gavial, maybe you take a hundred. But more than that?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  Even Gavial couldn't manage.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  There's a limit to what you can do with your fists.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Eunectes"]  But with a tool? That's different. My tribe created this 'Big, Ugly Thing' that effortlessly took down Gavial and destroyed the Temple just as easily.
 </t>
   </si>
   <si>
@@ -1384,11 +1384,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  So she became the Great Chief. Hah, well, that’s an L for me, obviously.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Are you okay with that?;......;You’re right to accept it, Gavial.",values="1;2;3")]
+    <t xml:space="preserve">[name="Gavial"]  So she became the Great Chief. Hah, well, that's an L for me, obviously.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Are you okay with that?;......;You're right to accept it, Gavial.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, I don’t need your comfort. I’m really fine.
+    <t xml:space="preserve">[name="Gavial"]  Hey, Doctor, I don't need your comfort. I'm really fine.
 </t>
   </si>
   <si>
@@ -1404,15 +1404,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, but I have to apologize to Tomimi. It’s my fault you never got a chance to fight.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...That’s okay. Even if I went up there, it wouldn’t have changed anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah, you’re right about that one.
+    <t xml:space="preserve">[name="Gavial"]  Oh, but I have to apologize to Tomimi. It's my fault you never got a chance to fight.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...That's okay. Even if I went up there, it wouldn't have changed anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah, you're right about that one.
 </t>
   </si>
   <si>
@@ -1428,15 +1428,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  And as for the others, if we didn’t see them at the ceremony, maybe they got lost?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Still thinking it over, Doctor? No rush. We’ve got some vacation time left.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Haha, I love this Doctor! Then let’s get some sightseeing in while we look for the engine and the girls.
+    <t xml:space="preserve">[name="Gavial"]  And as for the others, if we didn't see them at the ceremony, maybe they got lost?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Still thinking it over, Doctor? No rush. We've got some vacation time left.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Haha, I love this Doctor! Then let's get some sightseeing in while we look for the engine and the girls.
 </t>
   </si>
   <si>
@@ -1452,7 +1452,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Yeah, it’s just, it kinda...
+    <t xml:space="preserve">[name="Archosauria B"]  Yeah, it's just, it kinda...
 </t>
   </si>
   <si>
@@ -1468,7 +1468,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Gavial? You’re alive?
+    <t xml:space="preserve">[name="Archosauria A"]  Gavial? You're alive?
 </t>
   </si>
   <si>
@@ -1476,7 +1476,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Shut up for now. Lay your brother out and I’ll look him over.
+    <t xml:space="preserve">[name="Gavial"]  Shut up for now. Lay your brother out and I'll look him over.
 </t>
   </si>
   <si>
@@ -1492,7 +1492,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  He’s not dead. But he’s not looking good either.
+    <t xml:space="preserve">[name="Gavial"]  He's not dead. But he's not looking good either.
 </t>
   </si>
   <si>
@@ -1508,11 +1508,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s Stone Disease. The symptoms aren’t too bad. I have some emergency medicine in my bag, but we need to treat him right away.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Stand him up. He can’t lay down. I’ll give him some oxygen.
+    <t xml:space="preserve">[name="Gavial"]  It's Stone Disease. The symptoms aren't too bad. I have some emergency medicine in my bag, but we need to treat him right away.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Stand him up. He can't lay down. I'll give him some oxygen.
 </t>
   </si>
   <si>
@@ -1524,11 +1524,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, what’s your name?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria A"]  I’m Yogi. That’s my brother, Yota.
+    <t xml:space="preserve">[name="Gavial"]  Hey, what's your name?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria A"]  I'm Yogi. That's my brother, Yota.
 </t>
   </si>
   <si>
@@ -1540,7 +1540,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  What’s wrong, Gavial? Your face is scaring me.
+    <t xml:space="preserve">[name="Tomimi"]  What's wrong, Gavial? Your face is scaring me.
 </t>
   </si>
   <si>
@@ -1548,7 +1548,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m asking again: Did Zumama send you into the mines to get ore for her big metal monster?
+    <t xml:space="preserve">[name="Gavial"]  I'm asking again: Did Zumama send you into the mines to get ore for her big metal monster?
 </t>
   </si>
   <si>
@@ -1556,7 +1556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m sorry, Doctor. No matter what, I have to pay Zumama a visit.
+    <t xml:space="preserve">[name="Gavial"]  I'm sorry, Doctor. No matter what, I have to pay Zumama a visit.
 </t>
   </si>
   <si>
@@ -1568,7 +1568,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You’re the Doctor, you definitely know why.
+    <t xml:space="preserve">[name="Gavial"]  You're the Doctor, you definitely know why.
 </t>
   </si>
   <si>
@@ -1576,7 +1576,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Our tribes don’t have much contact with the outside world. To you and the other operators, we’re a primitive backwater. 
+    <t xml:space="preserve">[name="Gavial"]  Our tribes don't have much contact with the outside world. To you and the other operators, we're a primitive backwater. 
 </t>
   </si>
   <si>
@@ -1584,15 +1584,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Sometimes people catch it, sometimes they die of it. But nobody thinks it’s anything special, because people here die from lots of things.  
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Everyone looks after Oripathy patients like they’re just regular sick people. All they know about the disease is you can catch it in the mines.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  So very few people go into the mines. It’s been that way for a long time. 
+    <t xml:space="preserve">[name="Gavial"]  Sometimes people catch it, sometimes they die of it. But nobody thinks it's anything special, because people here die from lots of things.  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Everyone looks after Oripathy patients like they're just regular sick people. All they know about the disease is you can catch it in the mines.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  So very few people go into the mines. It's been that way for a long time. 
 </t>
   </si>
   <si>
@@ -1608,7 +1608,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Lucky she didn’t.
+    <t xml:space="preserve">[name="Gavial"]  Lucky she didn't.
 </t>
   </si>
   <si>
@@ -1616,7 +1616,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Don’t you dare say that. Getting sick is a terrible thing. It’s just bad luck.
+    <t xml:space="preserve">[name="Gavial"]  Don't you dare say that. Getting sick is a terrible thing. It's just bad luck.
 </t>
   </si>
   <si>
@@ -1628,11 +1628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  You’ve asked that a couple of times, Doctor.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  After I got sick, the other tribespeople wouldn’t let me do anything. I couldn’t hunt, I couldn’t even go to a gathering.
+    <t xml:space="preserve">[name="Gavial"]  You've asked that a couple of times, Doctor.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  After I got sick, the other tribespeople wouldn't let me do anything. I couldn't hunt, I couldn't even go to a gathering.
 </t>
   </si>
   <si>
@@ -1640,15 +1640,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  In the end, they wouldn’t even let me join the ceremony.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Day after day, time after time, it was 'Oh no, Gavial, let me do that for you,' you know what I mean...? That’s no life for me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial didn’t smile much after that...
+    <t xml:space="preserve">[name="Gavial"]  In the end, they wouldn't even let me join the ceremony.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Day after day, time after time, it was 'Oh no, Gavial, let me do that for you,' you know what I mean...? That's no life for me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Gavial didn't smile much after that...
 </t>
   </si>
   <si>
@@ -1656,7 +1656,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  *Sob*, I shouldn’t have been so pushy, Gavial...
+    <t xml:space="preserve">[name="Tomimi"]  *Sob*, I shouldn't have been so pushy, Gavial...
 </t>
   </si>
   <si>
@@ -1664,19 +1664,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  The reality is, around here, if you can’t fight, you’re nothing. A waste of space.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I’d rather you let me put myself in danger than take away my freedom to do anything.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Doctor, don’t you think this is funny?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  I think it’s funny. Only after I left the tribe did I realize what kind of hatred people have for Oripathy sufferers. 
+    <t xml:space="preserve">[name="Gavial"]  The reality is, around here, if you can't fight, you're nothing. A waste of space.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I'd rather you let me put myself in danger than take away my freedom to do anything.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Doctor, don't you think this is funny?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  I think it's funny. Only after I left the tribe did I realize what kind of hatred people have for Oripathy sufferers. 
 </t>
   </si>
   <si>
@@ -1684,7 +1684,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Tch, watch that tongue of yours, Doctor, or I’ll rip it out.
+    <t xml:space="preserve">[name="Gavial"]  Tch, watch that tongue of yours, Doctor, or I'll rip it out.
 </t>
   </si>
   <si>
@@ -1696,7 +1696,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, you got me off on a tangent there. This isn’t what I wanted to talk about.
+    <t xml:space="preserve">[name="Gavial"]  Hey, you got me off on a tangent there. This isn't what I wanted to talk about.
 </t>
   </si>
   <si>
@@ -1724,7 +1724,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I was thinking about how that great big monster of a machine must’ve taken a ton of iron ore to build.
+    <t xml:space="preserve">[name="Gavial"]  I was thinking about how that great big monster of a machine must've taken a ton of iron ore to build.
 </t>
   </si>
   <si>
@@ -1736,7 +1736,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Now I’ve got no problem with that, on its face. If she just had them digging around on the outside, no big deal.
+    <t xml:space="preserve">[name="Gavial"]  Now I've got no problem with that, on its face. If she just had them digging around on the outside, no big deal.
 </t>
   </si>
   <si>
@@ -1744,11 +1744,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I don’t care about her age of machines or whatever. If she’s throwing away lives, she’s earned a clobbering. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="You have my full support.;......;You’re a good doctor, Gavial.",values="1;2;3")]
+    <t xml:space="preserve">[name="Gavial"]  I don't care about her age of machines or whatever. If she's throwing away lives, she's earned a clobbering. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="You have my full support.;......;You're a good doctor, Gavial.",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1756,7 +1756,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Ooh, you’ve got that penetrating gaze, Doctor.
+    <t xml:space="preserve">[name="Gavial"]  Ooh, you've got that penetrating gaze, Doctor.
 </t>
   </si>
   <si>
@@ -1772,15 +1772,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Tomimi, where is Zumama’s tribe?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Um, I don’t know.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Yogi"]  Hey, Gavial, I’m really not interested in your hopes and dreams and ideals here. What’s up with my brother?
+    <t xml:space="preserve">[name="Gavial"]  Tomimi, where is Zumama's tribe?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Um, I don't know.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Yogi"]  Hey, Gavial, I'm really not interested in your hopes and dreams and ideals here. What's up with my brother?
 </t>
   </si>
   <si>
@@ -1804,19 +1804,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  If you want your brother to live, you’ll put your trust in me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...Okay then, I’ll take him back with me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh? You’re not coming with me?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  Ah! N-No! Of course I want to go with you, Gavial. But I have a few things that need doing first. I’ll catch up with you later!
+    <t xml:space="preserve">[name="Gavial"]  If you want your brother to live, you'll put your trust in me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...Okay then, I'll take him back with me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh? You're not coming with me?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  Ah! N-No! Of course I want to go with you, Gavial. But I have a few things that need doing first. I'll catch up with you later!
 </t>
   </si>
   <si>
@@ -1828,7 +1828,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial, do you remember the great waterfall? We’ll meet up there! 
+    <t xml:space="preserve">[name="Tomimi"]  Gavial, do you remember the great waterfall? We'll meet up there! 
 </t>
   </si>
   <si>
@@ -1836,11 +1836,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Yogi"]  Alright. You’re the one and only Gavial, I trust you. But I’m going with!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  No, you won’t be any help. And there’s something I need you to do for me.
+    <t xml:space="preserve">[name="Yogi"]  Alright. You're the one and only Gavial, I trust you. But I'm going with!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  No, you won't be any help. And there's something I need you to do for me.
 </t>
   </si>
   <si>
